--- a/数据表/X-性格表.xlsx
+++ b/数据表/X-性格表.xlsx
@@ -179,10 +179,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -194,12 +194,58 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -207,6 +253,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
@@ -222,46 +276,30 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -284,54 +322,16 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -357,187 +357,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -548,6 +548,35 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -590,20 +619,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -622,32 +648,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -656,10 +656,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -668,139 +668,142 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1124,10 +1127,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D27"/>
+  <dimension ref="A1:D28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -1167,11 +1170,11 @@
       <c r="B3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3" s="2">
         <v>1</v>
       </c>
-      <c r="D3" s="1">
-        <v>2</v>
+      <c r="D3" s="2">
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1181,11 +1184,11 @@
       <c r="B4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4" s="2">
         <v>1</v>
       </c>
-      <c r="D4" s="1">
-        <v>4</v>
+      <c r="D4" s="2">
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1195,11 +1198,11 @@
       <c r="B5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5" s="2">
         <v>1</v>
       </c>
-      <c r="D5" s="1">
-        <v>5</v>
+      <c r="D5" s="2">
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1209,11 +1212,11 @@
       <c r="B6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6" s="2">
         <v>1</v>
       </c>
-      <c r="D6" s="1">
-        <v>3</v>
+      <c r="D6" s="2">
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1223,10 +1226,10 @@
       <c r="B7" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="1">
-        <v>2</v>
-      </c>
-      <c r="D7" s="1">
+      <c r="C7" s="2">
+        <v>3</v>
+      </c>
+      <c r="D7" s="2">
         <v>1</v>
       </c>
     </row>
@@ -1237,11 +1240,11 @@
       <c r="B8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C8" s="2">
+        <v>3</v>
+      </c>
+      <c r="D8" s="2">
         <v>2</v>
-      </c>
-      <c r="D8" s="1">
-        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1251,11 +1254,11 @@
       <c r="B9" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="1">
-        <v>2</v>
-      </c>
-      <c r="D9" s="1">
-        <v>5</v>
+      <c r="C9" s="2">
+        <v>3</v>
+      </c>
+      <c r="D9" s="2">
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1265,11 +1268,11 @@
       <c r="B10" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="1">
-        <v>2</v>
-      </c>
-      <c r="D10" s="1">
+      <c r="C10" s="2">
         <v>3</v>
+      </c>
+      <c r="D10" s="2">
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1349,10 +1352,10 @@
       <c r="B16" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C16" s="1">
-        <v>4</v>
-      </c>
-      <c r="D16" s="1">
+      <c r="C16" s="2">
+        <v>2</v>
+      </c>
+      <c r="D16" s="2">
         <v>1</v>
       </c>
     </row>
@@ -1363,11 +1366,11 @@
       <c r="B17" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C17" s="1">
-        <v>4</v>
-      </c>
-      <c r="D17" s="1">
+      <c r="C17" s="2">
         <v>2</v>
+      </c>
+      <c r="D17" s="2">
+        <v>3</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -1377,11 +1380,11 @@
       <c r="B18" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C18" s="1">
+      <c r="C18" s="2">
+        <v>2</v>
+      </c>
+      <c r="D18" s="2">
         <v>4</v>
-      </c>
-      <c r="D18" s="1">
-        <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -1391,11 +1394,11 @@
       <c r="B19" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C19" s="1">
-        <v>4</v>
-      </c>
-      <c r="D19" s="1">
-        <v>3</v>
+      <c r="C19" s="2">
+        <v>2</v>
+      </c>
+      <c r="D19" s="2">
+        <v>5</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -1405,10 +1408,10 @@
       <c r="B20" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C20" s="1">
-        <v>5</v>
-      </c>
-      <c r="D20" s="1">
+      <c r="C20" s="2">
+        <v>4</v>
+      </c>
+      <c r="D20" s="2">
         <v>1</v>
       </c>
     </row>
@@ -1419,11 +1422,11 @@
       <c r="B21" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C21" s="1">
-        <v>5</v>
-      </c>
-      <c r="D21" s="1">
-        <v>2</v>
+      <c r="C21" s="2">
+        <v>4</v>
+      </c>
+      <c r="D21" s="2">
+        <v>3</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -1433,11 +1436,11 @@
       <c r="B22" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C22" s="1">
-        <v>5</v>
-      </c>
-      <c r="D22" s="1">
+      <c r="C22" s="2">
         <v>4</v>
+      </c>
+      <c r="D22" s="2">
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -1447,11 +1450,11 @@
       <c r="B23" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C23" s="1">
+      <c r="C23" s="2">
+        <v>4</v>
+      </c>
+      <c r="D23" s="2">
         <v>5</v>
-      </c>
-      <c r="D23" s="1">
-        <v>3</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -1461,10 +1464,10 @@
       <c r="B24" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C24" s="1">
-        <v>3</v>
-      </c>
-      <c r="D24" s="1">
+      <c r="C24" s="2">
+        <v>5</v>
+      </c>
+      <c r="D24" s="2">
         <v>1</v>
       </c>
     </row>
@@ -1475,11 +1478,11 @@
       <c r="B25" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C25" s="1">
+      <c r="C25" s="2">
+        <v>5</v>
+      </c>
+      <c r="D25" s="2">
         <v>3</v>
-      </c>
-      <c r="D25" s="1">
-        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -1489,11 +1492,11 @@
       <c r="B26" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C26" s="1">
-        <v>3</v>
-      </c>
-      <c r="D26" s="1">
-        <v>4</v>
+      <c r="C26" s="2">
+        <v>5</v>
+      </c>
+      <c r="D26" s="2">
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -1503,12 +1506,18 @@
       <c r="B27" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C27" s="1">
-        <v>3</v>
-      </c>
-      <c r="D27" s="1">
+      <c r="C27" s="2">
         <v>5</v>
       </c>
+      <c r="D27" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="2"/>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/数据表/X-性格表.xlsx
+++ b/数据表/X-性格表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540"/>
+    <workbookView windowHeight="17940"/>
   </bookViews>
   <sheets>
     <sheet name="CharacterConfig" sheetId="1" r:id="rId1"/>
@@ -79,7 +79,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="35">
   <si>
     <t>性格ID</t>
   </si>
@@ -97,6 +97,18 @@
   </si>
   <si>
     <t>int</t>
+  </si>
+  <si>
+    <t>Id</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Good</t>
+  </si>
+  <si>
+    <t>Bad</t>
   </si>
   <si>
     <t>孤独</t>
@@ -179,10 +191,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -194,21 +206,81 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -218,6 +290,22 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -232,74 +320,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -313,9 +334,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -323,15 +343,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -357,192 +369,192 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -551,46 +563,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -615,6 +598,39 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -648,6 +664,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -656,10 +683,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -668,141 +695,144 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1127,10 +1157,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D28"/>
+  <dimension ref="A1:D29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -1164,137 +1194,137 @@
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="1">
-        <v>1001</v>
-      </c>
-      <c r="B3" s="1" t="s">
+      <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="2">
-        <v>1</v>
-      </c>
-      <c r="D3" s="2">
-        <v>3</v>
+      <c r="B3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="2">
+        <v>10</v>
+      </c>
+      <c r="C4" s="1">
         <v>1</v>
       </c>
-      <c r="D4" s="2">
-        <v>2</v>
+      <c r="D4" s="1">
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="2">
+        <v>11</v>
+      </c>
+      <c r="C5" s="1">
         <v>1</v>
       </c>
-      <c r="D5" s="2">
-        <v>4</v>
+      <c r="D5" s="1">
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="2">
+        <v>12</v>
+      </c>
+      <c r="C6" s="1">
         <v>1</v>
       </c>
-      <c r="D6" s="2">
-        <v>5</v>
+      <c r="D6" s="1">
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" s="2">
-        <v>3</v>
-      </c>
-      <c r="D7" s="2">
+        <v>13</v>
+      </c>
+      <c r="C7" s="1">
         <v>1</v>
+      </c>
+      <c r="D7" s="1">
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" s="2">
+        <v>14</v>
+      </c>
+      <c r="C8" s="1">
         <v>3</v>
       </c>
-      <c r="D8" s="2">
-        <v>2</v>
+      <c r="D8" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" s="2">
+        <v>15</v>
+      </c>
+      <c r="C9" s="1">
         <v>3</v>
       </c>
-      <c r="D9" s="2">
-        <v>4</v>
+      <c r="D9" s="1">
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10" s="2">
+        <v>16</v>
+      </c>
+      <c r="C10" s="1">
         <v>3</v>
       </c>
-      <c r="D10" s="2">
-        <v>5</v>
+      <c r="D10" s="1">
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C11" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D11" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="1">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C12" s="1">
         <v>0</v>
@@ -1305,10 +1335,10 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="1">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C13" s="1">
         <v>0</v>
@@ -1319,10 +1349,10 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="1">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C14" s="1">
         <v>0</v>
@@ -1333,10 +1363,10 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="1">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C15" s="1">
         <v>0</v>
@@ -1347,177 +1377,191 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="1">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C16" s="2">
-        <v>2</v>
-      </c>
-      <c r="D16" s="2">
-        <v>1</v>
+        <v>22</v>
+      </c>
+      <c r="C16" s="1">
+        <v>0</v>
+      </c>
+      <c r="D16" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="1">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C17" s="2">
+        <v>23</v>
+      </c>
+      <c r="C17" s="1">
         <v>2</v>
       </c>
-      <c r="D17" s="2">
-        <v>3</v>
+      <c r="D17" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="1">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C18" s="2">
+        <v>24</v>
+      </c>
+      <c r="C18" s="1">
         <v>2</v>
       </c>
-      <c r="D18" s="2">
-        <v>4</v>
+      <c r="D18" s="1">
+        <v>3</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="1">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C19" s="2">
+        <v>25</v>
+      </c>
+      <c r="C19" s="1">
         <v>2</v>
       </c>
-      <c r="D19" s="2">
-        <v>5</v>
+      <c r="D19" s="1">
+        <v>4</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="1">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C20" s="2">
-        <v>4</v>
-      </c>
-      <c r="D20" s="2">
-        <v>1</v>
+        <v>26</v>
+      </c>
+      <c r="C20" s="1">
+        <v>2</v>
+      </c>
+      <c r="D20" s="1">
+        <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="1">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C21" s="2">
+        <v>27</v>
+      </c>
+      <c r="C21" s="1">
         <v>4</v>
       </c>
-      <c r="D21" s="2">
-        <v>3</v>
+      <c r="D21" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="1">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C22" s="2">
+        <v>28</v>
+      </c>
+      <c r="C22" s="1">
         <v>4</v>
       </c>
-      <c r="D22" s="2">
-        <v>2</v>
+      <c r="D22" s="1">
+        <v>3</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="1">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C23" s="2">
+        <v>29</v>
+      </c>
+      <c r="C23" s="1">
         <v>4</v>
       </c>
-      <c r="D23" s="2">
-        <v>5</v>
+      <c r="D23" s="1">
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="1">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C24" s="2">
+        <v>30</v>
+      </c>
+      <c r="C24" s="1">
+        <v>4</v>
+      </c>
+      <c r="D24" s="1">
         <v>5</v>
-      </c>
-      <c r="D24" s="2">
-        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="1">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C25" s="2">
+        <v>31</v>
+      </c>
+      <c r="C25" s="1">
         <v>5</v>
       </c>
-      <c r="D25" s="2">
-        <v>3</v>
+      <c r="D25" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="1">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C26" s="2">
+        <v>32</v>
+      </c>
+      <c r="C26" s="1">
         <v>5</v>
       </c>
-      <c r="D26" s="2">
-        <v>2</v>
+      <c r="D26" s="1">
+        <v>3</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="1">
+        <v>1024</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C27" s="1">
+        <v>5</v>
+      </c>
+      <c r="D27" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="1">
         <v>1025</v>
       </c>
-      <c r="B27" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C27" s="2">
+      <c r="B28" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C28" s="1">
         <v>5</v>
       </c>
-      <c r="D27" s="2">
+      <c r="D28" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
-      <c r="A28" s="2"/>
-      <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
+    <row r="29" spans="1:4">
+      <c r="A29" s="3"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/数据表/X-性格表.xlsx
+++ b/数据表/X-性格表.xlsx
@@ -16,7 +16,7 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
-    <author>RTX4090</author>
+    <author>杨锦龙</author>
   </authors>
   <commentList>
     <comment ref="C1" authorId="0">
@@ -28,7 +28,8 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t>RTX4090:</t>
+          <t xml:space="preserve">杨锦龙:
+</t>
         </r>
         <r>
           <rPr>
@@ -36,41 +37,9 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">
-0：无
-1：攻击
-2：防御
-3：速度
-4：特攻
-5：特防</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>RTX4090:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-0：无
-1：攻击
-2：防御
-3：速度
-4：特攻
-5：特防
-</t>
+          <t>0：无效果
+1：加强
+-1：削弱</t>
         </r>
       </text>
     </comment>
@@ -79,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="41">
   <si>
     <t>性格ID</t>
   </si>
@@ -87,10 +56,19 @@
     <t>性格名称</t>
   </si>
   <si>
-    <t>性格优势</t>
-  </si>
-  <si>
-    <t>性格弱势</t>
+    <t>攻击</t>
+  </si>
+  <si>
+    <t>特攻</t>
+  </si>
+  <si>
+    <t>防御</t>
+  </si>
+  <si>
+    <t>特防</t>
+  </si>
+  <si>
+    <t>速度</t>
   </si>
   <si>
     <t>string</t>
@@ -105,24 +83,60 @@
     <t>Name</t>
   </si>
   <si>
-    <t>Good</t>
-  </si>
-  <si>
-    <t>Bad</t>
+    <t>Atk</t>
+  </si>
+  <si>
+    <t>SpAtk</t>
+  </si>
+  <si>
+    <t>Def</t>
+  </si>
+  <si>
+    <t>SpDef</t>
+  </si>
+  <si>
+    <t>Spd</t>
+  </si>
+  <si>
+    <t>固执</t>
   </si>
   <si>
     <t>孤独</t>
   </si>
   <si>
-    <t>固执</t>
-  </si>
-  <si>
     <t>调皮</t>
   </si>
   <si>
     <t>勇敢</t>
   </si>
   <si>
+    <t>保守</t>
+  </si>
+  <si>
+    <t>稳重</t>
+  </si>
+  <si>
+    <t>马虎</t>
+  </si>
+  <si>
+    <t>冷静</t>
+  </si>
+  <si>
+    <t>害羞</t>
+  </si>
+  <si>
+    <t>实干</t>
+  </si>
+  <si>
+    <t>坦率</t>
+  </si>
+  <si>
+    <t>浮躁</t>
+  </si>
+  <si>
+    <t>认真</t>
+  </si>
+  <si>
     <t>大胆</t>
   </si>
   <si>
@@ -135,52 +149,25 @@
     <t>悠闲</t>
   </si>
   <si>
-    <t>害羞</t>
-  </si>
-  <si>
-    <t>实干</t>
-  </si>
-  <si>
-    <t>坦率</t>
-  </si>
-  <si>
-    <t>浮躁</t>
-  </si>
-  <si>
-    <t>认真</t>
-  </si>
-  <si>
-    <t>保守</t>
-  </si>
-  <si>
-    <t>稳重</t>
-  </si>
-  <si>
-    <t>马虎</t>
-  </si>
-  <si>
-    <t>冷静</t>
-  </si>
-  <si>
     <t>沉着</t>
   </si>
   <si>
+    <t>慎重</t>
+  </si>
+  <si>
     <t>温顺</t>
   </si>
   <si>
-    <t>慎重</t>
-  </si>
-  <si>
     <t>狂妄</t>
   </si>
   <si>
     <t>胆小</t>
   </si>
   <si>
+    <t>开朗</t>
+  </si>
+  <si>
     <t>急躁</t>
-  </si>
-  <si>
-    <t>开朗</t>
   </si>
   <si>
     <t>天真</t>
@@ -191,10 +178,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -205,10 +192,85 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -220,39 +282,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -264,29 +306,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -297,25 +316,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -326,24 +329,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -369,13 +356,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -387,169 +530,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -578,30 +565,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -621,7 +584,18 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -629,8 +603,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -646,6 +620,21 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -667,11 +656,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -683,10 +670,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -695,130 +682,130 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1157,174 +1144,273 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D29"/>
+  <dimension ref="A1:G29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+      <selection activeCell="N33" sqref="N33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="2" t="s">
         <v>7</v>
       </c>
+      <c r="C2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="C3" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>12</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1">
         <v>1001</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C4" s="1">
         <v>1</v>
       </c>
       <c r="D4" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>-1</v>
+      </c>
+      <c r="E4" s="2">
+        <v>0</v>
+      </c>
+      <c r="F4" s="2">
+        <v>0</v>
+      </c>
+      <c r="G4" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1">
         <v>1002</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C5" s="1">
         <v>1</v>
       </c>
-      <c r="D5" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="D5" s="2">
+        <v>0</v>
+      </c>
+      <c r="E5" s="2">
+        <v>-1</v>
+      </c>
+      <c r="F5" s="2">
+        <v>0</v>
+      </c>
+      <c r="G5" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1">
         <v>1003</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C6" s="1">
         <v>1</v>
       </c>
       <c r="D6" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>0</v>
+      </c>
+      <c r="E6" s="2">
+        <v>0</v>
+      </c>
+      <c r="F6" s="2">
+        <v>-1</v>
+      </c>
+      <c r="G6" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1">
         <v>1004</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="C7" s="1">
         <v>1</v>
       </c>
       <c r="D7" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>0</v>
+      </c>
+      <c r="E7" s="2">
+        <v>0</v>
+      </c>
+      <c r="F7" s="2">
+        <v>0</v>
+      </c>
+      <c r="G7" s="2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1">
         <v>1005</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="C8" s="1">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="D8" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:4">
+      <c r="E8" s="2">
+        <v>0</v>
+      </c>
+      <c r="F8" s="2">
+        <v>0</v>
+      </c>
+      <c r="G8" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1">
         <v>1006</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C9" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D9" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>1</v>
+      </c>
+      <c r="E9" s="2">
+        <v>-1</v>
+      </c>
+      <c r="F9" s="2">
+        <v>0</v>
+      </c>
+      <c r="G9" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1">
         <v>1007</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="C10" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D10" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>1</v>
+      </c>
+      <c r="E10" s="2">
+        <v>0</v>
+      </c>
+      <c r="F10" s="2">
+        <v>-1</v>
+      </c>
+      <c r="G10" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1">
         <v>1008</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="C11" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D11" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>1</v>
+      </c>
+      <c r="E11" s="2">
+        <v>0</v>
+      </c>
+      <c r="F11" s="2">
+        <v>0</v>
+      </c>
+      <c r="G11" s="2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1">
         <v>1009</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="C12" s="1">
         <v>0</v>
@@ -1332,13 +1418,22 @@
       <c r="D12" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:4">
+      <c r="E12" s="1">
+        <v>0</v>
+      </c>
+      <c r="F12" s="1">
+        <v>0</v>
+      </c>
+      <c r="G12" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1">
         <v>1010</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="C13" s="1">
         <v>0</v>
@@ -1346,13 +1441,22 @@
       <c r="D13" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:4">
+      <c r="E13" s="1">
+        <v>0</v>
+      </c>
+      <c r="F13" s="1">
+        <v>0</v>
+      </c>
+      <c r="G13" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1">
         <v>1011</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C14" s="1">
         <v>0</v>
@@ -1360,13 +1464,22 @@
       <c r="D14" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:4">
+      <c r="E14" s="1">
+        <v>0</v>
+      </c>
+      <c r="F14" s="1">
+        <v>0</v>
+      </c>
+      <c r="G14" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1">
         <v>1012</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="C15" s="1">
         <v>0</v>
@@ -1374,13 +1487,22 @@
       <c r="D15" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:4">
+      <c r="E15" s="1">
+        <v>0</v>
+      </c>
+      <c r="F15" s="1">
+        <v>0</v>
+      </c>
+      <c r="G15" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1">
         <v>1013</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="C16" s="1">
         <v>0</v>
@@ -1388,173 +1510,290 @@
       <c r="D16" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:4">
+      <c r="E16" s="1">
+        <v>0</v>
+      </c>
+      <c r="F16" s="1">
+        <v>0</v>
+      </c>
+      <c r="G16" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1">
         <v>1014</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="C17" s="1">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="D17" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
+        <v>0</v>
+      </c>
+      <c r="E17" s="2">
+        <v>1</v>
+      </c>
+      <c r="F17" s="2">
+        <v>0</v>
+      </c>
+      <c r="G17" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1">
         <v>1015</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="C18" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D18" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
+        <v>-1</v>
+      </c>
+      <c r="E18" s="2">
+        <v>1</v>
+      </c>
+      <c r="F18" s="2">
+        <v>0</v>
+      </c>
+      <c r="G18" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1">
         <v>1016</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="C19" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D19" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>0</v>
+      </c>
+      <c r="E19" s="2">
+        <v>1</v>
+      </c>
+      <c r="F19" s="2">
+        <v>-1</v>
+      </c>
+      <c r="G19" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1">
         <v>1017</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C20" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D20" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>0</v>
+      </c>
+      <c r="E20" s="2">
+        <v>1</v>
+      </c>
+      <c r="F20" s="2">
+        <v>0</v>
+      </c>
+      <c r="G20" s="2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1">
         <v>1018</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="C21" s="1">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="D21" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>0</v>
+      </c>
+      <c r="E21" s="2">
+        <v>0</v>
+      </c>
+      <c r="F21" s="2">
+        <v>1</v>
+      </c>
+      <c r="G21" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1">
         <v>1019</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="C22" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D22" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>-1</v>
+      </c>
+      <c r="E22" s="2">
+        <v>0</v>
+      </c>
+      <c r="F22" s="2">
+        <v>1</v>
+      </c>
+      <c r="G22" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1">
         <v>1020</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="C23" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D23" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>0</v>
+      </c>
+      <c r="E23" s="2">
+        <v>-1</v>
+      </c>
+      <c r="F23" s="2">
+        <v>1</v>
+      </c>
+      <c r="G23" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1">
         <v>1021</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="C24" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D24" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>0</v>
+      </c>
+      <c r="E24" s="2">
+        <v>0</v>
+      </c>
+      <c r="F24" s="2">
+        <v>1</v>
+      </c>
+      <c r="G24" s="2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1">
         <v>1022</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C25" s="1">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="D25" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>0</v>
+      </c>
+      <c r="E25" s="2">
+        <v>0</v>
+      </c>
+      <c r="F25" s="2">
+        <v>0</v>
+      </c>
+      <c r="G25" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1">
         <v>1023</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="C26" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D26" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>-1</v>
+      </c>
+      <c r="E26" s="2">
+        <v>0</v>
+      </c>
+      <c r="F26" s="2">
+        <v>0</v>
+      </c>
+      <c r="G26" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1">
         <v>1024</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="C27" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D27" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
+        <v>0</v>
+      </c>
+      <c r="E27" s="2">
+        <v>-1</v>
+      </c>
+      <c r="F27" s="2">
+        <v>0</v>
+      </c>
+      <c r="G27" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1">
         <v>1025</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="C28" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D28" s="1">
-        <v>4</v>
+        <v>0</v>
+      </c>
+      <c r="E28" s="2">
+        <v>0</v>
+      </c>
+      <c r="F28" s="2">
+        <v>-1</v>
+      </c>
+      <c r="G28" s="2">
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:4">
